--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2224335.720447075</v>
+        <v>2299865.390111879</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>238.463128590769</v>
+        <v>1.178315471687517</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.39834678541126</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>80.88877949312982</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>118.8460297402135</v>
+        <v>264.588469040948</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>116.1478579693657</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.5106614771182</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>240.729119577843</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>246.8641137043072</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.596015618368627</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>208.3423105940807</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>73.79396317203603</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.8429898769457</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>161.414768859566</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.50096938092089</v>
+        <v>89.35789353273667</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.56278619503827</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>183.465321784715</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>241.6425101371116</v>
       </c>
       <c r="V25" t="n">
-        <v>249.7581277322262</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>104.3370797092944</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>24.75012089215529</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.35789353273678</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>33.92423056204012</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>38.99176601649248</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>173.2064636401501</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.9898110906269</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>169.8940933782952</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>5.679804334165021</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>188.4590648403943</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.515311311824</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C2" t="n">
-        <v>1509.552794371412</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>617.0062271882081</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>617.0062271882081</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>617.0062271882081</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>138.3857151273829</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2522.073906861631</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>610.8079155505095</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>610.8079155505095</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>610.8079155505095</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>610.8079155505095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>610.8079155505095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>610.8079155505095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>686.9351304176948</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>317.9726134772831</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1391.420115592515</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481817</v>
+        <v>1001.280783616703</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>721.4663421676781</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W10" t="n">
-        <v>432.0491721307175</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.301810380298</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.301810380298</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1313.301810380298</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="W13" t="n">
-        <v>594.6916867163428</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="X13" t="n">
-        <v>594.6916867163428</v>
+        <v>1058.617322174411</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.6916867163428</v>
+        <v>837.824743030881</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,64 +5266,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>560.796960394947</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220957</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>560.796960394947</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2279.445761859784</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2484.468242641994</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169049</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X19" t="n">
-        <v>392.2530740188876</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.4604948753575</v>
+        <v>675.0071030383447</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141292</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1457.943759249783</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1258.023749165336</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1034.238333954841</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="V22" t="n">
-        <v>4093.25603081147</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958222</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060205</v>
+        <v>745.1096951683995</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>844.1942894808744</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C25" t="n">
-        <v>675.2581065529675</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2581065529675</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>4392.985814230959</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.635333454644</v>
+        <v>4138.301326025072</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.635333454644</v>
+        <v>3848.884155988112</v>
       </c>
       <c r="X25" t="n">
-        <v>1246.635333454644</v>
+        <v>3848.884155988112</v>
       </c>
       <c r="Y25" t="n">
-        <v>1025.842754311114</v>
+        <v>3628.091576844582</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1393.525280952555</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>1393.525280952555</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>1393.525280952555</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>1393.525280952555</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6464,25 +6466,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>3907.324136615209</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>4237.186764279241</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4558.06917767756</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1139.055629795946</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>884.3711415900586</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,16 +6685,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,13 +6703,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3946.684906976819</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C34" t="n">
-        <v>3777.748724048912</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048912</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048912</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048912</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>131.4839910179021</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.945405494735</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.945405494735</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y34" t="n">
-        <v>4036.945405494735</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>3540.192194764784</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3870.054822428817</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4539.518583731476</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4744.541064513685</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>4019.137726741515</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>4019.137726741515</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3869.021087329179</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4821.468950775412</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>4597.683535564917</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>4308.554896778475</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>4308.554896778475</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>4019.137726741515</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>4019.137726741515</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>4019.137726741515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>559.3999450277973</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>806.1650729342614</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1113.485206214223</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.347833878256</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.040236594515</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>1124.040236594515</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>1124.040236594515</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>1124.040236594515</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>896.0506856964978</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>675.2581065529677</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1323.168986627976</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1099.383571417482</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>810.2549326310402</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>555.5704444251534</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.1532743881928</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X43" t="n">
-        <v>266.1532743881928</v>
+        <v>783.4929482339625</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7658,40 +7660,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>1841.189502980821</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1308.553578799928</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1019.424940013486</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>764.7404518075996</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>475.3232817706389</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>306.114737013995</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5026862907245</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119822</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>52.49733361305169</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>29.47535963978157</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338563</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,25 +10427,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>104.6241510367952</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978235</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>148.2747143566559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>20.63789864135424</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.9802687929765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>124.1268468115672</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.68000845964531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>5.832052239061852</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.3310108010164</v>
+        <v>90.47408664920063</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>69.4015662087545</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>103.057676551876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>44.59484226146574</v>
       </c>
       <c r="V25" t="n">
-        <v>2.379515591601802</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.900272689283</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>261.4872315064221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.47408664920052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>114.989597805496</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25315,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>158.9290439671108</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>48.34109741823914</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>23.93099889297633</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>55.81556201074198</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>174.1521758477723</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>9.46174514320893</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327919</v>
@@ -26344,13 +26346,13 @@
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327919</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,34 +26426,34 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594792</v>
+        <v>-263730.5861594797</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550652</v>
+        <v>326237.2930550647</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550648</v>
+        <v>326237.2930550646</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969127</v>
+        <v>-91881.28637969165</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.7500972048</v>
+        <v>433278.750097205</v>
       </c>
       <c r="G6" t="n">
+        <v>433278.7500972053</v>
+      </c>
+      <c r="H6" t="n">
+        <v>433278.7500972045</v>
+      </c>
+      <c r="I6" t="n">
         <v>433278.7500972047</v>
       </c>
-      <c r="H6" t="n">
-        <v>433278.7500972046</v>
-      </c>
-      <c r="I6" t="n">
-        <v>433278.7500972048</v>
-      </c>
       <c r="J6" t="n">
-        <v>256855.530904612</v>
+        <v>256855.5309046119</v>
       </c>
       <c r="K6" t="n">
         <v>433278.7500972046</v>
@@ -26552,13 +26554,13 @@
         <v>433278.7500972048</v>
       </c>
       <c r="M6" t="n">
-        <v>298477.7348633675</v>
+        <v>298477.734863367</v>
       </c>
       <c r="N6" t="n">
+        <v>433278.7500972048</v>
+      </c>
+      <c r="O6" t="n">
         <v>433278.7500972047</v>
-      </c>
-      <c r="O6" t="n">
-        <v>433278.7500972048</v>
       </c>
       <c r="P6" t="n">
         <v>433278.7500972046</v>
@@ -26744,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>116.219913029914</v>
+        <v>353.5047261489954</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>96.56727500692696</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>131.2567594568891</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>250.8850709382556</v>
+        <v>105.142631637521</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>30.51733401079215</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>6.771212764859513</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>113.9539220428399</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>122.8669869741619</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>140.0691763617892</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>43.79533272974726</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>555.3724419700194</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>642.8663885318327</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>140.5103663981259</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109073</v>
@@ -36130,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879393</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377946</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749645</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.580930408112</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>311.7175659683198</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>298.8501529445951</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>353.8324720393672</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2299865.390111879</v>
+        <v>2292848.375220168</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.178315471687517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>67.87096028541178</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.39834678541126</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>123.7310010025639</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>264.588469040948</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.5106614771182</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>74.71515407471961</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>246.8641137043072</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095407</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>73.79396317203603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>252.0826094493297</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>161.414768859566</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.35789353273667</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.56278619503827</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151875</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>241.6425101371116</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>3.334148296601503</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>104.3370797092944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>24.75012089215529</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>33.92423056204012</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>27.55584844405763</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>124.5410887283004</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>38.99176601649248</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>173.2064636401501</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.24018360678566</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>51.20625352634686</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>169.8940933782952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.679804334165021</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>540.4633154629976</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>122.4995073611844</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>122.4995073611844</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>138.3857151273829</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>138.3857151273829</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>138.3857151273829</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>138.3857151273829</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781315</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
         <v>478.8522906713811</v>
@@ -4555,7 +4555,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2517.139592455217</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2263.377807093308</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1932.314919749737</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1579.546264479623</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.857161318065</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>478.852290671381</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.852290671381</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.852290671381</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1981.825876242508</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1629.057220972394</v>
       </c>
       <c r="X8" t="n">
-        <v>1391.420115592515</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.280783616703</v>
+        <v>865.4521307355028</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
         <v>348.7460229006679</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V10" t="n">
-        <v>517.6822058285749</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W10" t="n">
-        <v>517.6822058285749</v>
+        <v>698.712065060056</v>
       </c>
       <c r="X10" t="n">
-        <v>517.6822058285749</v>
+        <v>698.712065060056</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.6822058285749</v>
+        <v>698.712065060056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300437</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.1762782006413</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>656.1762782006413</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883055</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.301810380298</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.301810380298</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1313.301810380298</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="V13" t="n">
-        <v>1058.617322174411</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="W13" t="n">
-        <v>1058.617322174411</v>
+        <v>620.0096834386067</v>
       </c>
       <c r="X13" t="n">
-        <v>1058.617322174411</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y13" t="n">
-        <v>837.824743030881</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141295</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.796960394947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>781.5895395384771</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.796960394947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5527,34 +5527,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5600,19 +5600,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845923</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641087</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859784</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2484.468242641994</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,10 +5676,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383447</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>675.0071030383447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.0071030383447</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,58 +5731,58 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R22" t="n">
-        <v>1457.943759249783</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S22" t="n">
-        <v>1258.023749165336</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T22" t="n">
-        <v>1034.238333954841</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U22" t="n">
-        <v>745.1096951683995</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>745.1096951683995</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>745.1096951683995</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>745.1096951683995</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.1096951683995</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4392.985814230959</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4138.301326025072</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3848.884155988112</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3848.884155988112</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.0842369787848</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508779</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>268.760239702689</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1393.525280952555</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1393.525280952555</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1393.525280952555</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>1393.525280952555</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>1172.732701809025</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>3907.324136615209</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>4237.186764279241</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>4558.06917767756</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P30" t="n">
-        <v>4763.09165845977</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1139.055629795946</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>884.3711415900586</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>594.9539715530981</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2227.840212610278</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>468.5954956259884</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C34" t="n">
-        <v>299.6593126980815</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>299.6593126980815</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>131.4839910179021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.082080210369</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1247.296664999875</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>958.1680262134333</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>703.4835380075465</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240057</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="X34" t="n">
-        <v>468.5954956259884</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y34" t="n">
-        <v>468.5954956259884</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,10 +6928,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465859</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372323</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M36" t="n">
-        <v>3540.192194764784</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>3870.054822428817</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4539.518583731476</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4744.541064513685</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4019.137726741515</v>
+        <v>502.7260840420536</v>
       </c>
       <c r="C37" t="n">
-        <v>4019.137726741515</v>
+        <v>502.7260840420536</v>
       </c>
       <c r="D37" t="n">
-        <v>3869.021087329179</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E37" t="n">
-        <v>3721.107993746786</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F37" t="n">
-        <v>3721.107993746786</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746786</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4821.468950775412</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4597.683535564917</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>4308.554896778475</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>4308.554896778475</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W37" t="n">
-        <v>4019.137726741515</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X37" t="n">
-        <v>4019.137726741515</v>
+        <v>905.1671280158234</v>
       </c>
       <c r="Y37" t="n">
-        <v>4019.137726741515</v>
+        <v>684.3745488722933</v>
       </c>
     </row>
     <row r="38">
@@ -7153,46 +7153,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7207,13 +7207,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7256,10 +7256,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M39" t="n">
         <v>1722.015429253975</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.2581065529677</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C40" t="n">
-        <v>675.2581065529677</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529677</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
         <v>527.3450129705745</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1124.040236594515</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1124.040236594515</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.040236594515</v>
+        <v>1111.565224087839</v>
       </c>
       <c r="W40" t="n">
-        <v>1124.040236594515</v>
+        <v>822.148054050878</v>
       </c>
       <c r="X40" t="n">
-        <v>896.0506856964978</v>
+        <v>822.148054050878</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.2581065529677</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O42" t="n">
-        <v>1925.814757496977</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2463.528495470035</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.7003690904323</v>
+        <v>467.9934022109799</v>
       </c>
       <c r="C43" t="n">
-        <v>562.7003690904323</v>
+        <v>299.057219283073</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>148.9405798707373</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>955.1031435655738</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>783.4929482339625</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y43" t="n">
-        <v>562.7003690904323</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>792.456816243504</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050824</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.114737013995</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907245</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622809</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.49733361305169</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>29.47535963978157</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>41.75994765618367</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6241510367952</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>52.49733361305246</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.47535963978235</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,13 +10904,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305246</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>253.7371603504736</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.8856946302403</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>20.63789864135424</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>124.1268468115672</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>34.15474294924769</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>5.832052239061852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.47408664920063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.4015662087545</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338986</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>44.59484226146574</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>142.0868997263297</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>181.900272689283</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>261.4872315064221</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>114.989597805496</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>170.3649615395456</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.07438428991199</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>158.9290439671108</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>48.34109741823914</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.8974597170424</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>95.2277091202223</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.81556201074198</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.1521758477723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454838</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327917</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="K2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327915</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
@@ -26349,13 +26349,13 @@
         <v>547440.6836327917</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,16 +26447,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594797</v>
+        <v>-263730.5861594792</v>
       </c>
       <c r="C6" t="n">
         <v>326237.2930550647</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550646</v>
+        <v>326237.2930550651</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969165</v>
+        <v>-92855.87763941303</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.750097205</v>
+        <v>432304.1588374829</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972053</v>
+        <v>432304.1588374827</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972045</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972047</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="J6" t="n">
-        <v>256855.5309046119</v>
+        <v>255880.9396448898</v>
       </c>
       <c r="K6" t="n">
-        <v>433278.7500972046</v>
+        <v>432304.1588374826</v>
       </c>
       <c r="L6" t="n">
-        <v>433278.7500972048</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="M6" t="n">
-        <v>298477.734863367</v>
+        <v>297503.1436036455</v>
       </c>
       <c r="N6" t="n">
-        <v>433278.7500972048</v>
+        <v>432304.1588374829</v>
       </c>
       <c r="O6" t="n">
-        <v>433278.7500972047</v>
+        <v>432304.158837483</v>
       </c>
       <c r="P6" t="n">
-        <v>433278.7500972046</v>
+        <v>432304.1588374831</v>
       </c>
     </row>
   </sheetData>
@@ -26743,28 +26743,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>353.5047261489954</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>84.06035595944947</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>96.56727500692696</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>92.71731935509386</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>105.142631637521</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>6.771212764859513</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>99.70055873425193</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>122.8669869741619</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609832</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>43.79533272974726</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,10 +34786,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700194</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318327</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>265.0957540022525</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.5103663981259</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109073</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>137.947628233053</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>362.6699330377946</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515205984</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>324.1236498972918</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>311.7175659683198</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37387,10 +37387,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.4883924248565</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>564.1615374009399</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>395.979109561765</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>161.661626167781</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>353.8324720393672</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
